--- a/experimentos_ruido_sensor_variable.xlsx
+++ b/experimentos_ruido_sensor_variable.xlsx
@@ -9,12 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="0" windowWidth="15480" windowHeight="8640" activeTab="2"/>
+    <workbookView xWindow="42780" yWindow="0" windowWidth="15480" windowHeight="8640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="KL" sheetId="3" r:id="rId3"/>
+    <sheet name="DPD" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja7" sheetId="7" r:id="rId7"/>
+    <sheet name="Hoja8" sheetId="8" r:id="rId8"/>
+    <sheet name="IS" sheetId="9" r:id="rId9"/>
+    <sheet name="JS" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,6 +30,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="1">
+  <si>
+    <t>Error</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36,15 +51,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -52,12 +79,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,6 +394,451 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F4:P46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="13" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="22" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="31" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="32" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="40" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -362,14 +853,1470 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:P46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.91761466433273808</v>
+      </c>
+      <c r="D5">
+        <v>7.6229052130713626E-2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.91761466433273808</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7.6229052130713626E-2</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0.70551203756577452</v>
+      </c>
+      <c r="D6">
+        <v>7.5654611375966851E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.70551203756577452</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7.5654611375966851E-2</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0.53410052150670617</v>
+      </c>
+      <c r="D7">
+        <v>7.7740893925728471E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.53410052150670617</v>
+      </c>
+      <c r="G7" s="1">
+        <v>7.7740893925728471E-3</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0.81169637033341324</v>
+      </c>
+      <c r="D8">
+        <v>6.7158671724943275E-2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.81169637033341324</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6.7158671724943275E-2</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>2.4347998778404571</v>
+      </c>
+      <c r="D9">
+        <v>2.7060714183175349E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2.4347998778404571</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2.7060714183175349E-2</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="2">
+        <f>AVERAGE(F5:F9)</f>
+        <v>1.0807446943158179</v>
+      </c>
+      <c r="G10" s="2">
+        <f>AVERAGE(G5:G9)</f>
+        <v>5.0775427761474388E-2</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="22" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="31" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="32" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="40" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F4:P46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="13" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="22" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="31" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="32" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="40" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E50" sqref="A1:E50"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F4:P46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5:G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="13" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="22" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.09</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="23" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+    </row>
+    <row r="31" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.13</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P31" s="4">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="32" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+    </row>
+    <row r="40" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="4">
+        <v>0.17</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" s="4">
+        <v>0.18</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
+        <v>0.19</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P40" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="6:16" x14ac:dyDescent="0.25">
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>